--- a/files/database/db_allocation_template.xlsx
+++ b/files/database/db_allocation_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAROLJ\Desktop\Misc\Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaya/Desktop/morning_allocation/files/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D1A12-EDFA-442D-BC0F-6FFC389E7E95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA2A63C-22D9-EC45-9C4E-2601EC55E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Batch_Size</t>
-  </si>
-  <si>
-    <t>Batch_Status</t>
+    <t>Batch Status</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
   </si>
 </sst>
 </file>
@@ -409,23 +409,23 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.453125" customWidth="1"/>
-    <col min="9" max="9" width="24.453125" customWidth="1"/>
-    <col min="10" max="10" width="66.26953125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -442,10 +442,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -463,6 +463,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="cbc9373e-2d0f-4f82-b972-fcd84205de33" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100419F930C9A0251428E937488980977D4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c6797b1d1ba62b0a340b0f494ba0b6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ec3417ef-5393-476c-bdf8-c2ea117cda1a" xmlns:ns3="44bfd40d-9f79-44ee-ae9f-a4103196e93e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc1abb592810be0ac36414b6f78e68f9" ns2:_="" ns3:_="">
     <xsd:import namespace="ec3417ef-5393-476c-bdf8-c2ea117cda1a"/>
@@ -657,27 +677,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="cbc9373e-2d0f-4f82-b972-fcd84205de33" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B63A499-C3A3-4D86-AB9E-5C18FF859C39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B962CF7-19E3-4366-8C72-8333D9B41BDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06BCE27-B200-41F6-99C3-CCC1F48B504D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E401CF-B5C0-442A-836A-A6A790C74726}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -694,29 +719,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E06BCE27-B200-41F6-99C3-CCC1F48B504D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B962CF7-19E3-4366-8C72-8333D9B41BDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B63A499-C3A3-4D86-AB9E-5C18FF859C39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>